--- a/biology/Botanique/Parc_de_Rosenstein/Parc_de_Rosenstein.xlsx
+++ b/biology/Botanique/Parc_de_Rosenstein/Parc_de_Rosenstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de Rosenstein (Rosensteinpark) est le jardin anglais le plus étendu de l'Allemagne du sud-ouest. Il se trouve à Bad-Cannstatt, quartier résidentiel de Stuttgart.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc a été aménagé sur ordre du roi Guillaume de Wurtemberg, entre 1824 et 1840, selon les plans du jardinier de la cour, Johann Bosch. Il est situé à l'emplacement de l'ancien Kahlenstein que le roi a acheté, ainsi que les parcelles alentour, en 1817-1818.
 Le château de Rosenstein, qui se trouve au milieu du parc, a quant à lui été construit entre 1822 et 1830. Il comprend aussi le jardin botanique et zoologique Wilhelma, Le Museum am Löwentor (musée de la porte au Lion). La porte au lion (Löwentor) a été construite par Giovanni Salucci et sert d'entrée à la partie supérieure du parc. Un petit chemin de fer traverse le parc par le tunnel de Rosenstein.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Rosensteinpark » (voir la liste des auteurs).
  Portail du jardinage et de l’horticulture   Portail de Stuttgart   Portail des espaces verts                   </t>
